--- a/data/trans_orig/iP30A8_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A8_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5960D114-3859-4D80-8E36-403AD496A61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF26CFE2-DC29-4B97-B026-8446B97C348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D35321D7-B179-4605-B6EF-2345C9D95E77}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2E2B2379-8FBF-405A-92B7-60BE6DCB47F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>49,54%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>55,22%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>50,46%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>52,97%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -231,120 +345,6 @@
   </si>
   <si>
     <t>60,48%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
   </si>
   <si>
     <t>53,89%</t>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591DFD-922C-4FE6-AC04-979E059D4967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60815E91-A41D-4EEE-9609-5B03F4AFA9FA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -908,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>120348</v>
+        <v>9666</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -923,10 +923,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>100188</v>
+        <v>12754</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -938,10 +938,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>220536</v>
+        <v>22419</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -959,10 +959,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>122565</v>
+        <v>1731</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -974,10 +974,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>87729</v>
+        <v>3245</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -989,10 +989,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>266</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>210294</v>
+        <v>4976</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1010,10 +1010,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1025,10 +1025,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1040,10 +1040,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1218,49 +1218,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="D10" s="7">
-        <v>77265</v>
+        <v>120348</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="I10" s="7">
-        <v>73477</v>
+        <v>100188</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="N10" s="7">
-        <v>150742</v>
+        <v>220536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1269,49 +1269,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7">
-        <v>94191</v>
+        <v>122565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I11" s="7">
-        <v>95013</v>
+        <v>87729</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="N11" s="7">
-        <v>189205</v>
+        <v>210294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1320,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1335,10 +1335,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1350,10 +1350,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1367,55 +1367,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="D13" s="7">
-        <v>9666</v>
+        <v>102858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>12754</v>
+        <v>109501</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="N13" s="7">
-        <v>22419</v>
+        <v>212359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7">
-        <v>1731</v>
+        <v>68261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>3245</v>
+        <v>57067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="N14" s="7">
-        <v>4976</v>
+        <v>125328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1490,10 +1490,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1505,10 +1505,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1522,55 +1522,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>102858</v>
+        <v>77265</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>109501</v>
+        <v>73477</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="N16" s="7">
-        <v>212359</v>
+        <v>150742</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,28 +1579,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7">
-        <v>68261</v>
+        <v>94191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I17" s="7">
-        <v>57067</v>
+        <v>95013</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>98</v>
@@ -1609,10 +1609,10 @@
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="N17" s="7">
-        <v>125328</v>
+        <v>189205</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -1630,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1645,10 +1645,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1660,10 +1660,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30A8_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A8_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF26CFE2-DC29-4B97-B026-8446B97C348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2647C8FC-3BF4-47C4-BC89-18491A78BDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2E2B2379-8FBF-405A-92B7-60BE6DCB47F0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65EC6490-852E-4F69-91B4-28F7F05AF5BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si toman pasta o arroz casi a diario en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,253 +128,262 @@
     <t>90,95%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
     <t>64,11%</t>
   </si>
   <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>54,94%</t>
   </si>
   <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>49,54%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>53,89%</t>
@@ -353,52 +392,28 @@
     <t>50,62%</t>
   </si>
   <si>
-    <t>57,47%</t>
+    <t>57,52%</t>
   </si>
   <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -409,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -505,39 +520,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -589,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -700,13 +715,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -715,6 +723,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -779,19 +794,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60815E91-A41D-4EEE-9609-5B03F4AFA9FA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191315E3-A3B7-4921-98E1-AA6F05AC2770}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -908,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>9666</v>
+        <v>1731</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -923,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>12754</v>
+        <v>3245</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -938,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>22419</v>
+        <v>4976</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -959,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>1731</v>
+        <v>9666</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -974,10 +1009,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>3245</v>
+        <v>12754</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -989,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>4976</v>
+        <v>22419</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1063,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>72092</v>
+        <v>40356</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1078,10 +1113,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>49584</v>
+        <v>52051</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1093,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="N7" s="7">
-        <v>121676</v>
+        <v>92407</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1114,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7">
-        <v>40356</v>
+        <v>72092</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1129,10 +1164,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I8" s="7">
-        <v>52051</v>
+        <v>49584</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1144,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="N8" s="7">
-        <v>92407</v>
+        <v>121676</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1218,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7">
-        <v>120348</v>
+        <v>122565</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1233,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>100188</v>
+        <v>87729</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1248,10 +1283,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="N10" s="7">
-        <v>220536</v>
+        <v>210294</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1269,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>122565</v>
+        <v>120348</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1284,10 +1319,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="I11" s="7">
-        <v>87729</v>
+        <v>100188</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1299,10 +1334,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="N11" s="7">
-        <v>210294</v>
+        <v>220536</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1373,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>102858</v>
+        <v>68261</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1388,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>109501</v>
+        <v>57067</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1403,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="N13" s="7">
-        <v>212359</v>
+        <v>125328</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1424,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D14" s="7">
-        <v>68261</v>
+        <v>102858</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1439,10 +1474,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="I14" s="7">
-        <v>57067</v>
+        <v>109501</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1454,10 +1489,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="N14" s="7">
-        <v>125328</v>
+        <v>212359</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1528,49 +1563,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>77265</v>
+        <v>94191</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>73477</v>
+        <v>95013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="N16" s="7">
-        <v>150742</v>
+        <v>189205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,49 +1614,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>94191</v>
+        <v>77265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I17" s="7">
-        <v>95013</v>
+        <v>73477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="N17" s="7">
-        <v>189205</v>
+        <v>150742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,49 +1718,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>524</v>
+        <v>416</v>
       </c>
       <c r="D19" s="7">
-        <v>382229</v>
+        <v>327104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="I19" s="7">
-        <v>345503</v>
+        <v>295106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1033</v>
+        <v>822</v>
       </c>
       <c r="N19" s="7">
-        <v>727732</v>
+        <v>622210</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,49 +1769,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>416</v>
+        <v>524</v>
       </c>
       <c r="D20" s="7">
-        <v>327105</v>
+        <v>382229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>406</v>
+        <v>509</v>
       </c>
       <c r="I20" s="7">
-        <v>295106</v>
+        <v>345503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>822</v>
+        <v>1033</v>
       </c>
       <c r="N20" s="7">
-        <v>622210</v>
+        <v>727732</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,7 +1823,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1828,6 +1863,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
